--- a/PEA25_estimated_population.xlsx
+++ b/PEA25_estimated_population.xlsx
@@ -8,28 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stphn\Documents\CCT\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC47324-02C9-41CC-99FF-D0F1FC90961B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87B247-B5BE-458A-8C83-5DD5FE7D344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Unpivoted" sheetId="5" r:id="rId2"/>
     <sheet name="Pivoted" sheetId="6" r:id="rId3"/>
-    <sheet name="AllDataEdit" sheetId="7" r:id="rId4"/>
-    <sheet name="MaleData" sheetId="9" r:id="rId5"/>
-    <sheet name="M&amp;FData" sheetId="11" r:id="rId6"/>
-    <sheet name="FemaleData" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="72">
   <si>
     <t>Table</t>
   </si>
@@ -247,66 +243,12 @@
   <si>
     <t>Row Labels</t>
   </si>
-  <si>
-    <t>Both Sexs All Countries</t>
-  </si>
-  <si>
-    <t>Both Sexs EU14 excl Irl</t>
-  </si>
-  <si>
-    <t>Both Sexs EU15 to EU27</t>
-  </si>
-  <si>
-    <t>Both Sexs UK</t>
-  </si>
-  <si>
-    <t>Both Sexs Ire</t>
-  </si>
-  <si>
-    <t>Both Sexs All countries excl Ire,UK &amp; EU27</t>
-  </si>
-  <si>
-    <t>Male All Countries</t>
-  </si>
-  <si>
-    <t>Male EU14 excl Irl</t>
-  </si>
-  <si>
-    <t>Male EU15 to EU27</t>
-  </si>
-  <si>
-    <t>Male UK</t>
-  </si>
-  <si>
-    <t>Male Ire</t>
-  </si>
-  <si>
-    <t>Male All countries excl Ire,UK &amp; EU27</t>
-  </si>
-  <si>
-    <t>Female All Countries</t>
-  </si>
-  <si>
-    <t>Female EU14 excl Irl</t>
-  </si>
-  <si>
-    <t>Female EU15 to EU27</t>
-  </si>
-  <si>
-    <t>Female UK</t>
-  </si>
-  <si>
-    <t>Female Ire</t>
-  </si>
-  <si>
-    <t>Female All countries excl Ire,UK &amp; EU27</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -334,28 +276,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,24 +302,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -411,8 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +391,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Stephen Kelly" refreshedDate="45236.909805555559" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Stephen Kelly" refreshedDate="45246.959425347224" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F325" sheet="Unpivoted"/>
   </cacheSource>
@@ -4922,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11448,7 +11363,7 @@
   <dimension ref="A1:B398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11469,25 +11384,25 @@
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>4232.8999999999996</v>
       </c>
     </row>
@@ -11495,7 +11410,7 @@
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>43.8</v>
       </c>
     </row>
@@ -11503,7 +11418,7 @@
       <c r="A7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>132.5</v>
       </c>
     </row>
@@ -11511,7 +11426,7 @@
       <c r="A8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>115.5</v>
       </c>
     </row>
@@ -11519,7 +11434,7 @@
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>3802.4</v>
       </c>
     </row>
@@ -11527,7 +11442,7 @@
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>138.80000000000001</v>
       </c>
     </row>
@@ -11535,13 +11450,13 @@
       <c r="A11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>2117.3000000000002</v>
       </c>
     </row>
@@ -11549,7 +11464,7 @@
       <c r="A13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>21.3</v>
       </c>
     </row>
@@ -11557,7 +11472,7 @@
       <c r="A14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -11565,7 +11480,7 @@
       <c r="A15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>57.8</v>
       </c>
     </row>
@@ -11573,7 +11488,7 @@
       <c r="A16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>1887.4</v>
       </c>
     </row>
@@ -11581,7 +11496,7 @@
       <c r="A17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>70.900000000000006</v>
       </c>
     </row>
@@ -11589,13 +11504,13 @@
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>2115.6</v>
       </c>
     </row>
@@ -11603,7 +11518,7 @@
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>22.5</v>
       </c>
     </row>
@@ -11611,7 +11526,7 @@
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>52.6</v>
       </c>
     </row>
@@ -11619,7 +11534,7 @@
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>57.7</v>
       </c>
     </row>
@@ -11627,7 +11542,7 @@
       <c r="A23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>1914.9</v>
       </c>
     </row>
@@ -11635,7 +11550,7 @@
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>67.900000000000006</v>
       </c>
     </row>
@@ -11643,19 +11558,19 @@
       <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>4375.8</v>
       </c>
     </row>
@@ -11663,7 +11578,7 @@
       <c r="A28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="11">
         <v>47</v>
       </c>
     </row>
@@ -11671,7 +11586,7 @@
       <c r="A29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>207.6</v>
       </c>
     </row>
@@ -11679,7 +11594,7 @@
       <c r="A30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>115.5</v>
       </c>
     </row>
@@ -11687,7 +11602,7 @@
       <c r="A31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>3856.2</v>
       </c>
     </row>
@@ -11695,7 +11610,7 @@
       <c r="A32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>149.6</v>
       </c>
     </row>
@@ -11703,13 +11618,13 @@
       <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>2191.3000000000002</v>
       </c>
     </row>
@@ -11717,7 +11632,7 @@
       <c r="A35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>21.8</v>
       </c>
     </row>
@@ -11725,7 +11640,7 @@
       <c r="A36" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>120.3</v>
       </c>
     </row>
@@ -11733,7 +11648,7 @@
       <c r="A37" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="11">
         <v>57.6</v>
       </c>
     </row>
@@ -11741,7 +11656,7 @@
       <c r="A38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>1915.7</v>
       </c>
     </row>
@@ -11749,7 +11664,7 @@
       <c r="A39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -11757,13 +11672,13 @@
       <c r="A40" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="11">
         <v>2184.6</v>
       </c>
     </row>
@@ -11771,7 +11686,7 @@
       <c r="A42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="11">
         <v>25.2</v>
       </c>
     </row>
@@ -11779,7 +11694,7 @@
       <c r="A43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="11">
         <v>87.4</v>
       </c>
     </row>
@@ -11787,7 +11702,7 @@
       <c r="A44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="11">
         <v>57.9</v>
       </c>
     </row>
@@ -11795,7 +11710,7 @@
       <c r="A45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="11">
         <v>1940.5</v>
       </c>
     </row>
@@ -11803,7 +11718,7 @@
       <c r="A46" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="11">
         <v>73.7</v>
       </c>
     </row>
@@ -11811,19 +11726,19 @@
       <c r="A47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="11">
         <v>4485.1000000000004</v>
       </c>
     </row>
@@ -11831,7 +11746,7 @@
       <c r="A50" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="11">
         <v>50.8</v>
       </c>
     </row>
@@ -11839,7 +11754,7 @@
       <c r="A51" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="11">
         <v>247.7</v>
       </c>
     </row>
@@ -11847,7 +11762,7 @@
       <c r="A52" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="11">
         <v>117.9</v>
       </c>
     </row>
@@ -11855,7 +11770,7 @@
       <c r="A53" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="11">
         <v>3909.5</v>
       </c>
     </row>
@@ -11863,7 +11778,7 @@
       <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="11">
         <v>159.19999999999999</v>
       </c>
     </row>
@@ -11871,13 +11786,13 @@
       <c r="A55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="13"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56" s="11">
         <v>2238.6</v>
       </c>
     </row>
@@ -11885,7 +11800,7 @@
       <c r="A57" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="11">
         <v>23.7</v>
       </c>
     </row>
@@ -11893,7 +11808,7 @@
       <c r="A58" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="11">
         <v>133.9</v>
       </c>
     </row>
@@ -11901,7 +11816,7 @@
       <c r="A59" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="11">
         <v>58.9</v>
       </c>
     </row>
@@ -11909,7 +11824,7 @@
       <c r="A60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60" s="11">
         <v>1942.3</v>
       </c>
     </row>
@@ -11917,7 +11832,7 @@
       <c r="A61" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="11">
         <v>79.8</v>
       </c>
     </row>
@@ -11925,13 +11840,13 @@
       <c r="A62" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63" s="11">
         <v>2246.5</v>
       </c>
     </row>
@@ -11939,7 +11854,7 @@
       <c r="A64" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="11">
         <v>27.1</v>
       </c>
     </row>
@@ -11947,7 +11862,7 @@
       <c r="A65" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65" s="11">
         <v>113.8</v>
       </c>
     </row>
@@ -11955,7 +11870,7 @@
       <c r="A66" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66" s="11">
         <v>59</v>
       </c>
     </row>
@@ -11963,7 +11878,7 @@
       <c r="A67" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67" s="11">
         <v>1967.2</v>
       </c>
     </row>
@@ -11971,7 +11886,7 @@
       <c r="A68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68" s="11">
         <v>79.5</v>
       </c>
     </row>
@@ -11979,19 +11894,19 @@
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="11"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71" s="11">
         <v>4533.3999999999996</v>
       </c>
     </row>
@@ -11999,7 +11914,7 @@
       <c r="A72" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="13">
+      <c r="B72" s="11">
         <v>55.3</v>
       </c>
     </row>
@@ -12007,7 +11922,7 @@
       <c r="A73" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73" s="11">
         <v>240.8</v>
       </c>
     </row>
@@ -12015,7 +11930,7 @@
       <c r="A74" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="13">
+      <c r="B74" s="11">
         <v>117.1</v>
       </c>
     </row>
@@ -12023,7 +11938,7 @@
       <c r="A75" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75" s="11">
         <v>3958</v>
       </c>
     </row>
@@ -12031,7 +11946,7 @@
       <c r="A76" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="13">
+      <c r="B76" s="11">
         <v>162.19999999999999</v>
       </c>
     </row>
@@ -12039,13 +11954,13 @@
       <c r="A77" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="11">
         <v>2257.3000000000002</v>
       </c>
     </row>
@@ -12053,7 +11968,7 @@
       <c r="A79" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="11">
         <v>25.5</v>
       </c>
     </row>
@@ -12061,7 +11976,7 @@
       <c r="A80" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="11">
         <v>124.8</v>
       </c>
     </row>
@@ -12069,7 +11984,7 @@
       <c r="A81" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="11">
         <v>58.3</v>
       </c>
     </row>
@@ -12077,7 +11992,7 @@
       <c r="A82" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="11">
         <v>1966.4</v>
       </c>
     </row>
@@ -12085,7 +12000,7 @@
       <c r="A83" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="11">
         <v>82.3</v>
       </c>
     </row>
@@ -12093,13 +12008,13 @@
       <c r="A84" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="13"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="11">
         <v>2276.1</v>
       </c>
     </row>
@@ -12107,7 +12022,7 @@
       <c r="A86" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="11">
         <v>29.7</v>
       </c>
     </row>
@@ -12115,7 +12030,7 @@
       <c r="A87" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="11">
         <v>116</v>
       </c>
     </row>
@@ -12123,7 +12038,7 @@
       <c r="A88" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B88" s="11">
         <v>58.8</v>
       </c>
     </row>
@@ -12131,7 +12046,7 @@
       <c r="A89" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89" s="11">
         <v>1991.6</v>
       </c>
     </row>
@@ -12139,7 +12054,7 @@
       <c r="A90" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="11">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -12147,19 +12062,19 @@
       <c r="A91" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="13"/>
+      <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="13"/>
+      <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="11">
         <v>4554.8</v>
       </c>
     </row>
@@ -12167,7 +12082,7 @@
       <c r="A94" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="11">
         <v>52.4</v>
       </c>
     </row>
@@ -12175,7 +12090,7 @@
       <c r="A95" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95" s="11">
         <v>233</v>
       </c>
     </row>
@@ -12183,7 +12098,7 @@
       <c r="A96" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B96" s="11">
         <v>115.9</v>
       </c>
     </row>
@@ -12191,7 +12106,7 @@
       <c r="A97" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97" s="11">
         <v>3994.7</v>
       </c>
     </row>
@@ -12199,7 +12114,7 @@
       <c r="A98" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B98" s="11">
         <v>158.69999999999999</v>
       </c>
     </row>
@@ -12207,13 +12122,13 @@
       <c r="A99" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="11">
         <v>2262.1999999999998</v>
       </c>
     </row>
@@ -12221,7 +12136,7 @@
       <c r="A101" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="11">
         <v>24</v>
       </c>
     </row>
@@ -12229,7 +12144,7 @@
       <c r="A102" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="13">
+      <c r="B102" s="11">
         <v>117.6</v>
       </c>
     </row>
@@ -12237,7 +12152,7 @@
       <c r="A103" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="11">
         <v>57.7</v>
       </c>
     </row>
@@ -12245,7 +12160,7 @@
       <c r="A104" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104" s="11">
         <v>1983.3</v>
       </c>
     </row>
@@ -12253,7 +12168,7 @@
       <c r="A105" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="11">
         <v>79.599999999999994</v>
       </c>
     </row>
@@ -12261,13 +12176,13 @@
       <c r="A106" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="11"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B107" s="13">
+      <c r="B107" s="11">
         <v>2292.6</v>
       </c>
     </row>
@@ -12275,7 +12190,7 @@
       <c r="A108" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108" s="11">
         <v>28.4</v>
       </c>
     </row>
@@ -12283,7 +12198,7 @@
       <c r="A109" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="13">
+      <c r="B109" s="11">
         <v>115.5</v>
       </c>
     </row>
@@ -12291,7 +12206,7 @@
       <c r="A110" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110" s="11">
         <v>58.2</v>
       </c>
     </row>
@@ -12299,7 +12214,7 @@
       <c r="A111" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="13">
+      <c r="B111" s="11">
         <v>2011.4</v>
       </c>
     </row>
@@ -12307,7 +12222,7 @@
       <c r="A112" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112" s="11">
         <v>79.099999999999994</v>
       </c>
     </row>
@@ -12315,19 +12230,19 @@
       <c r="A113" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="13"/>
+      <c r="B113" s="11"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B114" s="13"/>
+      <c r="B114" s="11"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B115" s="13">
+      <c r="B115" s="11">
         <v>4574.8999999999996</v>
       </c>
     </row>
@@ -12335,7 +12250,7 @@
       <c r="A116" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116" s="11">
         <v>49.4</v>
       </c>
     </row>
@@ -12343,7 +12258,7 @@
       <c r="A117" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="13">
+      <c r="B117" s="11">
         <v>231.5</v>
       </c>
     </row>
@@ -12351,7 +12266,7 @@
       <c r="A118" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="11">
         <v>114.9</v>
       </c>
     </row>
@@ -12359,7 +12274,7 @@
       <c r="A119" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="11">
         <v>4017.9</v>
       </c>
     </row>
@@ -12367,7 +12282,7 @@
       <c r="A120" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120" s="11">
         <v>161.19999999999999</v>
       </c>
     </row>
@@ -12375,13 +12290,13 @@
       <c r="A121" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B121" s="13"/>
+      <c r="B121" s="11"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122" s="11">
         <v>2270.5</v>
       </c>
     </row>
@@ -12389,7 +12304,7 @@
       <c r="A123" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B123" s="13">
+      <c r="B123" s="11">
         <v>23.9</v>
       </c>
     </row>
@@ -12397,7 +12312,7 @@
       <c r="A124" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124" s="11">
         <v>116.5</v>
       </c>
     </row>
@@ -12405,7 +12320,7 @@
       <c r="A125" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B125" s="13">
+      <c r="B125" s="11">
         <v>57.8</v>
       </c>
     </row>
@@ -12413,7 +12328,7 @@
       <c r="A126" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126" s="11">
         <v>1991.9</v>
       </c>
     </row>
@@ -12421,7 +12336,7 @@
       <c r="A127" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B127" s="13">
+      <c r="B127" s="11">
         <v>80.400000000000006</v>
       </c>
     </row>
@@ -12429,13 +12344,13 @@
       <c r="A128" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B128" s="13"/>
+      <c r="B128" s="11"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B129" s="13">
+      <c r="B129" s="11">
         <v>2304.4</v>
       </c>
     </row>
@@ -12443,7 +12358,7 @@
       <c r="A130" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130" s="11">
         <v>25.5</v>
       </c>
     </row>
@@ -12451,7 +12366,7 @@
       <c r="A131" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="13">
+      <c r="B131" s="11">
         <v>114.9</v>
       </c>
     </row>
@@ -12459,7 +12374,7 @@
       <c r="A132" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132" s="11">
         <v>57.1</v>
       </c>
     </row>
@@ -12467,7 +12382,7 @@
       <c r="A133" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B133" s="13">
+      <c r="B133" s="11">
         <v>2026</v>
       </c>
     </row>
@@ -12475,7 +12390,7 @@
       <c r="A134" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134" s="11">
         <v>80.8</v>
       </c>
     </row>
@@ -12483,19 +12398,19 @@
       <c r="A135" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B135" s="13"/>
+      <c r="B135" s="11"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="13"/>
+      <c r="B136" s="11"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B137" s="11">
         <v>4593.7</v>
       </c>
     </row>
@@ -12503,7 +12418,7 @@
       <c r="A138" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B138" s="11">
         <v>51</v>
       </c>
     </row>
@@ -12511,7 +12426,7 @@
       <c r="A139" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B139" s="13">
+      <c r="B139" s="11">
         <v>232.7</v>
       </c>
     </row>
@@ -12519,7 +12434,7 @@
       <c r="A140" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B140" s="13">
+      <c r="B140" s="11">
         <v>111.8</v>
       </c>
     </row>
@@ -12527,7 +12442,7 @@
       <c r="A141" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B141" s="13">
+      <c r="B141" s="11">
         <v>4046.6</v>
       </c>
     </row>
@@ -12535,7 +12450,7 @@
       <c r="A142" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B142" s="13">
+      <c r="B142" s="11">
         <v>151.6</v>
       </c>
     </row>
@@ -12543,13 +12458,13 @@
       <c r="A143" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B143" s="13"/>
+      <c r="B143" s="11"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B144" s="13">
+      <c r="B144" s="11">
         <v>2275</v>
       </c>
     </row>
@@ -12557,7 +12472,7 @@
       <c r="A145" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B145" s="13">
+      <c r="B145" s="11">
         <v>24.3</v>
       </c>
     </row>
@@ -12565,7 +12480,7 @@
       <c r="A146" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B146" s="13">
+      <c r="B146" s="11">
         <v>116.8</v>
       </c>
     </row>
@@ -12573,7 +12488,7 @@
       <c r="A147" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B147" s="13">
+      <c r="B147" s="11">
         <v>56.1</v>
       </c>
     </row>
@@ -12581,7 +12496,7 @@
       <c r="A148" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B148" s="13">
+      <c r="B148" s="11">
         <v>2003.2</v>
       </c>
     </row>
@@ -12589,7 +12504,7 @@
       <c r="A149" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B149" s="13">
+      <c r="B149" s="11">
         <v>74.7</v>
       </c>
     </row>
@@ -12597,13 +12512,13 @@
       <c r="A150" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="13"/>
+      <c r="B150" s="11"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="11">
         <v>2318.6999999999998</v>
       </c>
     </row>
@@ -12611,7 +12526,7 @@
       <c r="A152" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B152" s="13">
+      <c r="B152" s="11">
         <v>26.7</v>
       </c>
     </row>
@@ -12619,7 +12534,7 @@
       <c r="A153" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B153" s="13">
+      <c r="B153" s="11">
         <v>115.9</v>
       </c>
     </row>
@@ -12627,7 +12542,7 @@
       <c r="A154" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B154" s="13">
+      <c r="B154" s="11">
         <v>55.7</v>
       </c>
     </row>
@@ -12635,7 +12550,7 @@
       <c r="A155" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B155" s="13">
+      <c r="B155" s="11">
         <v>2043.4</v>
       </c>
     </row>
@@ -12643,7 +12558,7 @@
       <c r="A156" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B156" s="13">
+      <c r="B156" s="11">
         <v>76.900000000000006</v>
       </c>
     </row>
@@ -12651,19 +12566,19 @@
       <c r="A157" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B157" s="13"/>
+      <c r="B157" s="11"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="13"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B159" s="13">
+      <c r="B159" s="11">
         <v>4614.7</v>
       </c>
     </row>
@@ -12671,7 +12586,7 @@
       <c r="A160" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B160" s="13">
+      <c r="B160" s="11">
         <v>53.2</v>
       </c>
     </row>
@@ -12679,7 +12594,7 @@
       <c r="A161" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B161" s="13">
+      <c r="B161" s="11">
         <v>234.5</v>
       </c>
     </row>
@@ -12687,7 +12602,7 @@
       <c r="A162" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B162" s="13">
+      <c r="B162" s="11">
         <v>109.2</v>
       </c>
     </row>
@@ -12695,7 +12610,7 @@
       <c r="A163" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B163" s="13">
+      <c r="B163" s="11">
         <v>4080.7</v>
       </c>
     </row>
@@ -12703,7 +12618,7 @@
       <c r="A164" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B164" s="13">
+      <c r="B164" s="11">
         <v>137.1</v>
       </c>
     </row>
@@ -12711,13 +12626,13 @@
       <c r="A165" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B165" s="13"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B166" s="13">
+      <c r="B166" s="11">
         <v>2286.1</v>
       </c>
     </row>
@@ -12725,7 +12640,7 @@
       <c r="A167" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B167" s="13">
+      <c r="B167" s="11">
         <v>25.8</v>
       </c>
     </row>
@@ -12733,7 +12648,7 @@
       <c r="A168" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B168" s="13">
+      <c r="B168" s="11">
         <v>117.5</v>
       </c>
     </row>
@@ -12741,7 +12656,7 @@
       <c r="A169" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B169" s="13">
+      <c r="B169" s="11">
         <v>55</v>
       </c>
     </row>
@@ -12749,7 +12664,7 @@
       <c r="A170" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B170" s="13">
+      <c r="B170" s="11">
         <v>2019.4</v>
       </c>
     </row>
@@ -12757,7 +12672,7 @@
       <c r="A171" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B171" s="13">
+      <c r="B171" s="11">
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -12765,13 +12680,13 @@
       <c r="A172" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B172" s="13"/>
+      <c r="B172" s="11"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B173" s="13">
+      <c r="B173" s="11">
         <v>2328.5</v>
       </c>
     </row>
@@ -12779,7 +12694,7 @@
       <c r="A174" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B174" s="13">
+      <c r="B174" s="11">
         <v>27.4</v>
       </c>
     </row>
@@ -12787,7 +12702,7 @@
       <c r="A175" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B175" s="13">
+      <c r="B175" s="11">
         <v>117</v>
       </c>
     </row>
@@ -12795,7 +12710,7 @@
       <c r="A176" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B176" s="13">
+      <c r="B176" s="11">
         <v>54.1</v>
       </c>
     </row>
@@ -12803,7 +12718,7 @@
       <c r="A177" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B177" s="13">
+      <c r="B177" s="11">
         <v>2061.3000000000002</v>
       </c>
     </row>
@@ -12811,7 +12726,7 @@
       <c r="A178" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B178" s="13">
+      <c r="B178" s="11">
         <v>68.7</v>
       </c>
     </row>
@@ -12819,19 +12734,19 @@
       <c r="A179" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B179" s="13"/>
+      <c r="B179" s="11"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B180" s="13"/>
+      <c r="B180" s="11"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B181" s="13">
+      <c r="B181" s="11">
         <v>4645.3999999999996</v>
       </c>
     </row>
@@ -12839,7 +12754,7 @@
       <c r="A182" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B182" s="13">
+      <c r="B182" s="11">
         <v>56.9</v>
       </c>
     </row>
@@ -12847,7 +12762,7 @@
       <c r="A183" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B183" s="13">
+      <c r="B183" s="11">
         <v>242.8</v>
       </c>
     </row>
@@ -12855,7 +12770,7 @@
       <c r="A184" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B184" s="13">
+      <c r="B184" s="11">
         <v>107.1</v>
       </c>
     </row>
@@ -12863,7 +12778,7 @@
       <c r="A185" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B185" s="13">
+      <c r="B185" s="11">
         <v>4117.6000000000004</v>
       </c>
     </row>
@@ -12871,7 +12786,7 @@
       <c r="A186" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B186" s="13">
+      <c r="B186" s="11">
         <v>121</v>
       </c>
     </row>
@@ -12879,13 +12794,13 @@
       <c r="A187" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="13"/>
+      <c r="B187" s="11"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B188" s="13">
+      <c r="B188" s="11">
         <v>2299</v>
       </c>
     </row>
@@ -12893,7 +12808,7 @@
       <c r="A189" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B189" s="13">
+      <c r="B189" s="11">
         <v>27.6</v>
       </c>
     </row>
@@ -12901,7 +12816,7 @@
       <c r="A190" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B190" s="13">
+      <c r="B190" s="11">
         <v>121.5</v>
       </c>
     </row>
@@ -12909,7 +12824,7 @@
       <c r="A191" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B191" s="13">
+      <c r="B191" s="11">
         <v>54.1</v>
       </c>
     </row>
@@ -12917,7 +12832,7 @@
       <c r="A192" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B192" s="13">
+      <c r="B192" s="11">
         <v>2036</v>
       </c>
     </row>
@@ -12925,7 +12840,7 @@
       <c r="A193" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B193" s="13">
+      <c r="B193" s="11">
         <v>59.8</v>
       </c>
     </row>
@@ -12933,13 +12848,13 @@
       <c r="A194" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B194" s="13"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B195" s="13">
+      <c r="B195" s="11">
         <v>2346.4</v>
       </c>
     </row>
@@ -12947,7 +12862,7 @@
       <c r="A196" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B196" s="13">
+      <c r="B196" s="11">
         <v>29.3</v>
       </c>
     </row>
@@ -12955,7 +12870,7 @@
       <c r="A197" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B197" s="13">
+      <c r="B197" s="11">
         <v>121.3</v>
       </c>
     </row>
@@ -12963,7 +12878,7 @@
       <c r="A198" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B198" s="13">
+      <c r="B198" s="11">
         <v>53</v>
       </c>
     </row>
@@ -12971,7 +12886,7 @@
       <c r="A199" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B199" s="13">
+      <c r="B199" s="11">
         <v>2081.6</v>
       </c>
     </row>
@@ -12979,7 +12894,7 @@
       <c r="A200" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B200" s="13">
+      <c r="B200" s="11">
         <v>61.2</v>
       </c>
     </row>
@@ -12987,19 +12902,19 @@
       <c r="A201" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B201" s="13"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B202" s="13"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B203" s="13">
+      <c r="B203" s="11">
         <v>4687.8</v>
       </c>
     </row>
@@ -13007,7 +12922,7 @@
       <c r="A204" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B204" s="13">
+      <c r="B204" s="11">
         <v>60.3</v>
       </c>
     </row>
@@ -13015,7 +12930,7 @@
       <c r="A205" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B205" s="13">
+      <c r="B205" s="11">
         <v>247.8</v>
       </c>
     </row>
@@ -13023,7 +12938,7 @@
       <c r="A206" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B206" s="13">
+      <c r="B206" s="11">
         <v>105.7</v>
       </c>
     </row>
@@ -13031,7 +12946,7 @@
       <c r="A207" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B207" s="13">
+      <c r="B207" s="11">
         <v>4152.8999999999996</v>
       </c>
     </row>
@@ -13039,7 +12954,7 @@
       <c r="A208" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B208" s="13">
+      <c r="B208" s="11">
         <v>121.1</v>
       </c>
     </row>
@@ -13047,13 +12962,13 @@
       <c r="A209" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B209" s="13"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B210" s="13">
+      <c r="B210" s="11">
         <v>2317.6999999999998</v>
       </c>
     </row>
@@ -13061,7 +12976,7 @@
       <c r="A211" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B211" s="13">
+      <c r="B211" s="11">
         <v>28.4</v>
       </c>
     </row>
@@ -13069,7 +12984,7 @@
       <c r="A212" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B212" s="13">
+      <c r="B212" s="11">
         <v>123.5</v>
       </c>
     </row>
@@ -13077,7 +12992,7 @@
       <c r="A213" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B213" s="13">
+      <c r="B213" s="11">
         <v>53.6</v>
       </c>
     </row>
@@ -13085,7 +13000,7 @@
       <c r="A214" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B214" s="13">
+      <c r="B214" s="11">
         <v>2052.1</v>
       </c>
     </row>
@@ -13093,7 +13008,7 @@
       <c r="A215" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B215" s="13">
+      <c r="B215" s="11">
         <v>60.1</v>
       </c>
     </row>
@@ -13101,13 +13016,13 @@
       <c r="A216" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B216" s="13"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B217" s="13">
+      <c r="B217" s="11">
         <v>2370.1</v>
       </c>
     </row>
@@ -13115,7 +13030,7 @@
       <c r="A218" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B218" s="13">
+      <c r="B218" s="11">
         <v>31.9</v>
       </c>
     </row>
@@ -13123,7 +13038,7 @@
       <c r="A219" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B219" s="13">
+      <c r="B219" s="11">
         <v>124.2</v>
       </c>
     </row>
@@ -13131,7 +13046,7 @@
       <c r="A220" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B220" s="13">
+      <c r="B220" s="11">
         <v>52.2</v>
       </c>
     </row>
@@ -13139,7 +13054,7 @@
       <c r="A221" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B221" s="13">
+      <c r="B221" s="11">
         <v>2100.8000000000002</v>
       </c>
     </row>
@@ -13147,7 +13062,7 @@
       <c r="A222" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B222" s="13">
+      <c r="B222" s="11">
         <v>61</v>
       </c>
     </row>
@@ -13155,19 +13070,19 @@
       <c r="A223" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B223" s="13"/>
+      <c r="B223" s="11"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B224" s="13"/>
+      <c r="B224" s="11"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B225" s="13">
+      <c r="B225" s="11">
         <v>4739.6000000000004</v>
       </c>
     </row>
@@ -13175,7 +13090,7 @@
       <c r="A226" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B226" s="13">
+      <c r="B226" s="11">
         <v>64.900000000000006</v>
       </c>
     </row>
@@ -13183,7 +13098,7 @@
       <c r="A227" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B227" s="13">
+      <c r="B227" s="11">
         <v>249.4</v>
       </c>
     </row>
@@ -13191,7 +13106,7 @@
       <c r="A228" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B228" s="13">
+      <c r="B228" s="11">
         <v>105.7</v>
       </c>
     </row>
@@ -13199,7 +13114,7 @@
       <c r="A229" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B229" s="13">
+      <c r="B229" s="11">
         <v>4189.1000000000004</v>
       </c>
     </row>
@@ -13207,7 +13122,7 @@
       <c r="A230" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B230" s="13">
+      <c r="B230" s="11">
         <v>130.4</v>
       </c>
     </row>
@@ -13215,13 +13130,13 @@
       <c r="A231" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B231" s="13"/>
+      <c r="B231" s="11"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B232" s="13">
+      <c r="B232" s="11">
         <v>2346.5</v>
       </c>
     </row>
@@ -13229,7 +13144,7 @@
       <c r="A233" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B233" s="13">
+      <c r="B233" s="11">
         <v>31.3</v>
       </c>
     </row>
@@ -13237,7 +13152,7 @@
       <c r="A234" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B234" s="13">
+      <c r="B234" s="11">
         <v>123.5</v>
       </c>
     </row>
@@ -13245,7 +13160,7 @@
       <c r="A235" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B235" s="13">
+      <c r="B235" s="11">
         <v>54.2</v>
       </c>
     </row>
@@ -13253,7 +13168,7 @@
       <c r="A236" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B236" s="13">
+      <c r="B236" s="11">
         <v>2071.4</v>
       </c>
     </row>
@@ -13261,7 +13176,7 @@
       <c r="A237" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B237" s="13">
+      <c r="B237" s="11">
         <v>66.099999999999994</v>
       </c>
     </row>
@@ -13269,13 +13184,13 @@
       <c r="A238" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B238" s="13"/>
+      <c r="B238" s="11"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B239" s="13">
+      <c r="B239" s="11">
         <v>2393.1</v>
       </c>
     </row>
@@ -13283,7 +13198,7 @@
       <c r="A240" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B240" s="13">
+      <c r="B240" s="11">
         <v>33.5</v>
       </c>
     </row>
@@ -13291,7 +13206,7 @@
       <c r="A241" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B241" s="13">
+      <c r="B241" s="11">
         <v>125.9</v>
       </c>
     </row>
@@ -13299,7 +13214,7 @@
       <c r="A242" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B242" s="13">
+      <c r="B242" s="11">
         <v>51.6</v>
       </c>
     </row>
@@ -13307,7 +13222,7 @@
       <c r="A243" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B243" s="13">
+      <c r="B243" s="11">
         <v>2117.6999999999998</v>
       </c>
     </row>
@@ -13315,7 +13230,7 @@
       <c r="A244" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B244" s="13">
+      <c r="B244" s="11">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -13323,19 +13238,19 @@
       <c r="A245" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B245" s="13"/>
+      <c r="B245" s="11"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B246" s="13"/>
+      <c r="B246" s="11"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B247" s="13">
+      <c r="B247" s="11">
         <v>4810.8999999999996</v>
       </c>
     </row>
@@ -13343,7 +13258,7 @@
       <c r="A248" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B248" s="13">
+      <c r="B248" s="11">
         <v>69.5</v>
       </c>
     </row>
@@ -13351,7 +13266,7 @@
       <c r="A249" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B249" s="13">
+      <c r="B249" s="11">
         <v>246.9</v>
       </c>
     </row>
@@ -13359,7 +13274,7 @@
       <c r="A250" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B250" s="13">
+      <c r="B250" s="11">
         <v>103.3</v>
       </c>
     </row>
@@ -13367,7 +13282,7 @@
       <c r="A251" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B251" s="13">
+      <c r="B251" s="11">
         <v>4245.3</v>
       </c>
     </row>
@@ -13375,7 +13290,7 @@
       <c r="A252" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="13">
+      <c r="B252" s="11">
         <v>145.9</v>
       </c>
     </row>
@@ -13383,13 +13298,13 @@
       <c r="A253" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B253" s="13"/>
+      <c r="B253" s="11"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B254" s="13">
+      <c r="B254" s="11">
         <v>2380.8000000000002</v>
       </c>
     </row>
@@ -13397,7 +13312,7 @@
       <c r="A255" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B255" s="13">
+      <c r="B255" s="11">
         <v>33.200000000000003</v>
       </c>
     </row>
@@ -13405,7 +13320,7 @@
       <c r="A256" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B256" s="13">
+      <c r="B256" s="11">
         <v>122.1</v>
       </c>
     </row>
@@ -13413,7 +13328,7 @@
       <c r="A257" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B257" s="13">
+      <c r="B257" s="11">
         <v>53.1</v>
       </c>
     </row>
@@ -13421,7 +13336,7 @@
       <c r="A258" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B258" s="13">
+      <c r="B258" s="11">
         <v>2099.1999999999998</v>
       </c>
     </row>
@@ -13429,7 +13344,7 @@
       <c r="A259" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B259" s="13">
+      <c r="B259" s="11">
         <v>73.2</v>
       </c>
     </row>
@@ -13437,13 +13352,13 @@
       <c r="A260" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B260" s="13"/>
+      <c r="B260" s="11"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B261" s="13">
+      <c r="B261" s="11">
         <v>2430.1</v>
       </c>
     </row>
@@ -13451,7 +13366,7 @@
       <c r="A262" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B262" s="13">
+      <c r="B262" s="11">
         <v>36.4</v>
       </c>
     </row>
@@ -13459,7 +13374,7 @@
       <c r="A263" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B263" s="13">
+      <c r="B263" s="11">
         <v>124.7</v>
       </c>
     </row>
@@ -13467,7 +13382,7 @@
       <c r="A264" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B264" s="13">
+      <c r="B264" s="11">
         <v>50.3</v>
       </c>
     </row>
@@ -13475,7 +13390,7 @@
       <c r="A265" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B265" s="13">
+      <c r="B265" s="11">
         <v>2146</v>
       </c>
     </row>
@@ -13483,7 +13398,7 @@
       <c r="A266" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B266" s="13">
+      <c r="B266" s="11">
         <v>72.7</v>
       </c>
     </row>
@@ -13491,19 +13406,19 @@
       <c r="A267" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B267" s="13"/>
+      <c r="B267" s="11"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B268" s="13"/>
+      <c r="B268" s="11"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B269" s="13">
+      <c r="B269" s="11">
         <v>4884.8999999999996</v>
       </c>
     </row>
@@ -13511,7 +13426,7 @@
       <c r="A270" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B270" s="13">
+      <c r="B270" s="11">
         <v>74.3</v>
       </c>
     </row>
@@ -13519,7 +13434,7 @@
       <c r="A271" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B271" s="13">
+      <c r="B271" s="11">
         <v>247.9</v>
       </c>
     </row>
@@ -13527,7 +13442,7 @@
       <c r="A272" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B272" s="13">
+      <c r="B272" s="11">
         <v>103</v>
       </c>
     </row>
@@ -13535,7 +13450,7 @@
       <c r="A273" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B273" s="13">
+      <c r="B273" s="11">
         <v>4292.3</v>
       </c>
     </row>
@@ -13543,7 +13458,7 @@
       <c r="A274" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B274" s="13">
+      <c r="B274" s="11">
         <v>167.5</v>
       </c>
     </row>
@@ -13551,13 +13466,13 @@
       <c r="A275" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B275" s="13"/>
+      <c r="B275" s="11"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B276" s="13">
+      <c r="B276" s="11">
         <v>2419.5</v>
       </c>
     </row>
@@ -13565,7 +13480,7 @@
       <c r="A277" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B277" s="13">
+      <c r="B277" s="11">
         <v>35.5</v>
       </c>
     </row>
@@ -13573,7 +13488,7 @@
       <c r="A278" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B278" s="13">
+      <c r="B278" s="11">
         <v>122.5</v>
       </c>
     </row>
@@ -13581,7 +13496,7 @@
       <c r="A279" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B279" s="13">
+      <c r="B279" s="11">
         <v>53.3</v>
       </c>
     </row>
@@ -13589,7 +13504,7 @@
       <c r="A280" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B280" s="13">
+      <c r="B280" s="11">
         <v>2123.5</v>
       </c>
     </row>
@@ -13597,7 +13512,7 @@
       <c r="A281" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B281" s="13">
+      <c r="B281" s="11">
         <v>84.8</v>
       </c>
     </row>
@@ -13605,13 +13520,13 @@
       <c r="A282" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B282" s="13"/>
+      <c r="B282" s="11"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B283" s="13">
+      <c r="B283" s="11">
         <v>2465.4</v>
       </c>
     </row>
@@ -13619,7 +13534,7 @@
       <c r="A284" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B284" s="13">
+      <c r="B284" s="11">
         <v>38.799999999999997</v>
       </c>
     </row>
@@ -13627,7 +13542,7 @@
       <c r="A285" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B285" s="13">
+      <c r="B285" s="11">
         <v>125.4</v>
       </c>
     </row>
@@ -13635,7 +13550,7 @@
       <c r="A286" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B286" s="13">
+      <c r="B286" s="11">
         <v>49.7</v>
       </c>
     </row>
@@ -13643,7 +13558,7 @@
       <c r="A287" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B287" s="13">
+      <c r="B287" s="11">
         <v>2168.8000000000002</v>
       </c>
     </row>
@@ -13651,7 +13566,7 @@
       <c r="A288" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B288" s="13">
+      <c r="B288" s="11">
         <v>82.7</v>
       </c>
     </row>
@@ -13659,19 +13574,19 @@
       <c r="A289" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B289" s="13"/>
+      <c r="B289" s="11"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B290" s="13"/>
+      <c r="B290" s="11"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B291" s="13">
+      <c r="B291" s="11">
         <v>4958.5</v>
       </c>
     </row>
@@ -13679,7 +13594,7 @@
       <c r="A292" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B292" s="13">
+      <c r="B292" s="11">
         <v>82.3</v>
       </c>
     </row>
@@ -13687,7 +13602,7 @@
       <c r="A293" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B293" s="13">
+      <c r="B293" s="11">
         <v>245.2</v>
       </c>
     </row>
@@ -13695,7 +13610,7 @@
       <c r="A294" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B294" s="13">
+      <c r="B294" s="11">
         <v>102.7</v>
       </c>
     </row>
@@ -13703,7 +13618,7 @@
       <c r="A295" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B295" s="13">
+      <c r="B295" s="11">
         <v>4336.5</v>
       </c>
     </row>
@@ -13711,7 +13626,7 @@
       <c r="A296" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B296" s="13">
+      <c r="B296" s="11">
         <v>191.7</v>
       </c>
     </row>
@@ -13719,13 +13634,13 @@
       <c r="A297" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B297" s="13"/>
+      <c r="B297" s="11"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B298" s="13">
+      <c r="B298" s="11">
         <v>2456.3000000000002</v>
       </c>
     </row>
@@ -13733,7 +13648,7 @@
       <c r="A299" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B299" s="13">
+      <c r="B299" s="11">
         <v>39.4</v>
       </c>
     </row>
@@ -13741,7 +13656,7 @@
       <c r="A300" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B300" s="13">
+      <c r="B300" s="11">
         <v>121</v>
       </c>
     </row>
@@ -13749,7 +13664,7 @@
       <c r="A301" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B301" s="13">
+      <c r="B301" s="11">
         <v>53.5</v>
       </c>
     </row>
@@ -13757,7 +13672,7 @@
       <c r="A302" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B302" s="13">
+      <c r="B302" s="11">
         <v>2145.1999999999998</v>
       </c>
     </row>
@@ -13765,7 +13680,7 @@
       <c r="A303" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B303" s="13">
+      <c r="B303" s="11">
         <v>97.3</v>
       </c>
     </row>
@@ -13773,13 +13688,13 @@
       <c r="A304" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B304" s="13"/>
+      <c r="B304" s="11"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B305" s="13">
+      <c r="B305" s="11">
         <v>2502.1999999999998</v>
       </c>
     </row>
@@ -13787,7 +13702,7 @@
       <c r="A306" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B306" s="13">
+      <c r="B306" s="11">
         <v>42.9</v>
       </c>
     </row>
@@ -13795,7 +13710,7 @@
       <c r="A307" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B307" s="13">
+      <c r="B307" s="11">
         <v>124.2</v>
       </c>
     </row>
@@ -13803,7 +13718,7 @@
       <c r="A308" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B308" s="13">
+      <c r="B308" s="11">
         <v>49.2</v>
       </c>
     </row>
@@ -13811,7 +13726,7 @@
       <c r="A309" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B309" s="13">
+      <c r="B309" s="11">
         <v>2191.3000000000002</v>
       </c>
     </row>
@@ -13819,7 +13734,7 @@
       <c r="A310" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B310" s="13">
+      <c r="B310" s="11">
         <v>94.5</v>
       </c>
     </row>
@@ -13827,19 +13742,19 @@
       <c r="A311" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B311" s="13"/>
+      <c r="B311" s="11"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B312" s="13"/>
+      <c r="B312" s="11"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B313" s="13">
+      <c r="B313" s="11">
         <v>5029.8999999999996</v>
       </c>
     </row>
@@ -13847,7 +13762,7 @@
       <c r="A314" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B314" s="13">
+      <c r="B314" s="11">
         <v>86.5</v>
       </c>
     </row>
@@ -13855,7 +13770,7 @@
       <c r="A315" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B315" s="13">
+      <c r="B315" s="11">
         <v>244.9</v>
       </c>
     </row>
@@ -13863,7 +13778,7 @@
       <c r="A316" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B316" s="13">
+      <c r="B316" s="11">
         <v>100</v>
       </c>
     </row>
@@ -13871,7 +13786,7 @@
       <c r="A317" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B317" s="13">
+      <c r="B317" s="11">
         <v>4384.8</v>
       </c>
     </row>
@@ -13879,7 +13794,7 @@
       <c r="A318" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B318" s="13">
+      <c r="B318" s="11">
         <v>213.6</v>
       </c>
     </row>
@@ -13887,13 +13802,13 @@
       <c r="A319" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B319" s="13"/>
+      <c r="B319" s="11"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B320" s="13">
+      <c r="B320" s="11">
         <v>2491.8000000000002</v>
       </c>
     </row>
@@ -13901,7 +13816,7 @@
       <c r="A321" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B321" s="13">
+      <c r="B321" s="11">
         <v>41.5</v>
       </c>
     </row>
@@ -13909,7 +13824,7 @@
       <c r="A322" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B322" s="13">
+      <c r="B322" s="11">
         <v>121.8</v>
       </c>
     </row>
@@ -13917,7 +13832,7 @@
       <c r="A323" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B323" s="13">
+      <c r="B323" s="11">
         <v>51.8</v>
       </c>
     </row>
@@ -13925,7 +13840,7 @@
       <c r="A324" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B324" s="13">
+      <c r="B324" s="11">
         <v>2169.1999999999998</v>
       </c>
     </row>
@@ -13933,7 +13848,7 @@
       <c r="A325" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B325" s="13">
+      <c r="B325" s="11">
         <v>107.4</v>
       </c>
     </row>
@@ -13941,13 +13856,13 @@
       <c r="A326" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B326" s="13"/>
+      <c r="B326" s="11"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B327" s="13">
+      <c r="B327" s="11">
         <v>2538.1</v>
       </c>
     </row>
@@ -13955,7 +13870,7 @@
       <c r="A328" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B328" s="13">
+      <c r="B328" s="11">
         <v>45</v>
       </c>
     </row>
@@ -13963,7 +13878,7 @@
       <c r="A329" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B329" s="13">
+      <c r="B329" s="11">
         <v>123.1</v>
       </c>
     </row>
@@ -13971,7 +13886,7 @@
       <c r="A330" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B330" s="13">
+      <c r="B330" s="11">
         <v>48.2</v>
       </c>
     </row>
@@ -13979,7 +13894,7 @@
       <c r="A331" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B331" s="13">
+      <c r="B331" s="11">
         <v>2215.6</v>
       </c>
     </row>
@@ -13987,7 +13902,7 @@
       <c r="A332" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B332" s="13">
+      <c r="B332" s="11">
         <v>106.2</v>
       </c>
     </row>
@@ -13995,19 +13910,19 @@
       <c r="A333" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B333" s="13"/>
+      <c r="B333" s="11"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B334" s="13"/>
+      <c r="B334" s="11"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B335" s="13">
+      <c r="B335" s="11">
         <v>5074.7</v>
       </c>
     </row>
@@ -14015,7 +13930,7 @@
       <c r="A336" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B336" s="13">
+      <c r="B336" s="11">
         <v>86.7</v>
       </c>
     </row>
@@ -14023,7 +13938,7 @@
       <c r="A337" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B337" s="13">
+      <c r="B337" s="11">
         <v>240</v>
       </c>
     </row>
@@ -14031,7 +13946,7 @@
       <c r="A338" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B338" s="13">
+      <c r="B338" s="11">
         <v>97.7</v>
       </c>
     </row>
@@ -14039,7 +13954,7 @@
       <c r="A339" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B339" s="13">
+      <c r="B339" s="11">
         <v>4430.8</v>
       </c>
     </row>
@@ -14047,7 +13962,7 @@
       <c r="A340" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B340" s="13">
+      <c r="B340" s="11">
         <v>219.4</v>
       </c>
     </row>
@@ -14055,13 +13970,13 @@
       <c r="A341" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B341" s="13"/>
+      <c r="B341" s="11"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B342" s="13">
+      <c r="B342" s="11">
         <v>2514</v>
       </c>
     </row>
@@ -14069,7 +13984,7 @@
       <c r="A343" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B343" s="13">
+      <c r="B343" s="11">
         <v>42.1</v>
       </c>
     </row>
@@ -14077,7 +13992,7 @@
       <c r="A344" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B344" s="13">
+      <c r="B344" s="11">
         <v>118.6</v>
       </c>
     </row>
@@ -14085,7 +14000,7 @@
       <c r="A345" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B345" s="13">
+      <c r="B345" s="11">
         <v>53.6</v>
       </c>
     </row>
@@ -14093,7 +14008,7 @@
       <c r="A346" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B346" s="13">
+      <c r="B346" s="11">
         <v>2194.5</v>
       </c>
     </row>
@@ -14101,7 +14016,7 @@
       <c r="A347" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B347" s="13">
+      <c r="B347" s="11">
         <v>105.2</v>
       </c>
     </row>
@@ -14109,13 +14024,13 @@
       <c r="A348" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B348" s="13"/>
+      <c r="B348" s="11"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B349" s="13">
+      <c r="B349" s="11">
         <v>2560.6</v>
       </c>
     </row>
@@ -14123,7 +14038,7 @@
       <c r="A350" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B350" s="13">
+      <c r="B350" s="11">
         <v>44.6</v>
       </c>
     </row>
@@ -14131,7 +14046,7 @@
       <c r="A351" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B351" s="13">
+      <c r="B351" s="11">
         <v>121.4</v>
       </c>
     </row>
@@ -14139,7 +14054,7 @@
       <c r="A352" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B352" s="13">
+      <c r="B352" s="11">
         <v>44.1</v>
       </c>
     </row>
@@ -14147,7 +14062,7 @@
       <c r="A353" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B353" s="13">
+      <c r="B353" s="11">
         <v>2236.3000000000002</v>
       </c>
     </row>
@@ -14155,7 +14070,7 @@
       <c r="A354" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B354" s="13">
+      <c r="B354" s="11">
         <v>114.2</v>
       </c>
     </row>
@@ -14163,19 +14078,19 @@
       <c r="A355" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B355" s="13"/>
+      <c r="B355" s="11"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B356" s="13"/>
+      <c r="B356" s="11"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B357" s="13">
+      <c r="B357" s="11">
         <v>5184</v>
       </c>
     </row>
@@ -14183,7 +14098,7 @@
       <c r="A358" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B358" s="13">
+      <c r="B358" s="11">
         <v>90.6</v>
       </c>
     </row>
@@ -14191,7 +14106,7 @@
       <c r="A359" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B359" s="13">
+      <c r="B359" s="11">
         <v>240.5</v>
       </c>
     </row>
@@ -14199,7 +14114,7 @@
       <c r="A360" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B360" s="13">
+      <c r="B360" s="11">
         <v>89.3</v>
       </c>
     </row>
@@ -14207,7 +14122,7 @@
       <c r="A361" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B361" s="13">
+      <c r="B361" s="11">
         <v>4495.3999999999996</v>
       </c>
     </row>
@@ -14215,7 +14130,7 @@
       <c r="A362" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B362" s="13">
+      <c r="B362" s="11">
         <v>268.10000000000002</v>
       </c>
     </row>
@@ -14223,13 +14138,13 @@
       <c r="A363" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B363" s="13"/>
+      <c r="B363" s="11"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B364" s="13">
+      <c r="B364" s="11">
         <v>2562</v>
       </c>
     </row>
@@ -14237,7 +14152,7 @@
       <c r="A365" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B365" s="13">
+      <c r="B365" s="11">
         <v>43.9</v>
       </c>
     </row>
@@ -14245,7 +14160,7 @@
       <c r="A366" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B366" s="13">
+      <c r="B366" s="11">
         <v>119.9</v>
       </c>
     </row>
@@ -14253,7 +14168,7 @@
       <c r="A367" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B367" s="13">
+      <c r="B367" s="11">
         <v>48.1</v>
       </c>
     </row>
@@ -14261,7 +14176,7 @@
       <c r="A368" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B368" s="13">
+      <c r="B368" s="11">
         <v>2222</v>
       </c>
     </row>
@@ -14269,7 +14184,7 @@
       <c r="A369" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B369" s="13">
+      <c r="B369" s="11">
         <v>128</v>
       </c>
     </row>
@@ -14277,13 +14192,13 @@
       <c r="A370" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B370" s="13"/>
+      <c r="B370" s="11"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B371" s="13">
+      <c r="B371" s="11">
         <v>2622</v>
       </c>
     </row>
@@ -14291,7 +14206,7 @@
       <c r="A372" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B372" s="13">
+      <c r="B372" s="11">
         <v>46.6</v>
       </c>
     </row>
@@ -14299,7 +14214,7 @@
       <c r="A373" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B373" s="13">
+      <c r="B373" s="11">
         <v>120.6</v>
       </c>
     </row>
@@ -14307,7 +14222,7 @@
       <c r="A374" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B374" s="13">
+      <c r="B374" s="11">
         <v>41.2</v>
       </c>
     </row>
@@ -14315,7 +14230,7 @@
       <c r="A375" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B375" s="13">
+      <c r="B375" s="11">
         <v>2273.5</v>
       </c>
     </row>
@@ -14323,7 +14238,7 @@
       <c r="A376" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B376" s="13">
+      <c r="B376" s="11">
         <v>140.1</v>
       </c>
     </row>
@@ -14331,19 +14246,19 @@
       <c r="A377" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B377" s="13"/>
+      <c r="B377" s="11"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B378" s="13"/>
+      <c r="B378" s="11"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B379" s="13">
+      <c r="B379" s="11">
         <v>5281.6</v>
       </c>
     </row>
@@ -14351,7 +14266,7 @@
       <c r="A380" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B380" s="13">
+      <c r="B380" s="11">
         <v>98.7</v>
       </c>
     </row>
@@ -14359,7 +14274,7 @@
       <c r="A381" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B381" s="13">
+      <c r="B381" s="11">
         <v>243.2</v>
       </c>
     </row>
@@ -14367,7 +14282,7 @@
       <c r="A382" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B382" s="13">
+      <c r="B382" s="11">
         <v>88.1</v>
       </c>
     </row>
@@ -14375,7 +14290,7 @@
       <c r="A383" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B383" s="13">
+      <c r="B383" s="11">
         <v>4524.6000000000004</v>
       </c>
     </row>
@@ -14383,7 +14298,7 @@
       <c r="A384" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B384" s="13">
+      <c r="B384" s="11">
         <v>327</v>
       </c>
     </row>
@@ -14391,13 +14306,13 @@
       <c r="A385" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B385" s="13"/>
+      <c r="B385" s="11"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B386" s="13">
+      <c r="B386" s="11">
         <v>2606.1999999999998</v>
       </c>
     </row>
@@ -14405,7 +14320,7 @@
       <c r="A387" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B387" s="13">
+      <c r="B387" s="11">
         <v>48.7</v>
       </c>
     </row>
@@ -14413,7 +14328,7 @@
       <c r="A388" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B388" s="13">
+      <c r="B388" s="11">
         <v>120.6</v>
       </c>
     </row>
@@ -14421,7 +14336,7 @@
       <c r="A389" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B389" s="13">
+      <c r="B389" s="11">
         <v>47.5</v>
       </c>
     </row>
@@ -14429,7 +14344,7 @@
       <c r="A390" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B390" s="13">
+      <c r="B390" s="11">
         <v>2237.1</v>
       </c>
     </row>
@@ -14437,7 +14352,7 @@
       <c r="A391" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B391" s="13">
+      <c r="B391" s="11">
         <v>152.30000000000001</v>
       </c>
     </row>
@@ -14445,13 +14360,13 @@
       <c r="A392" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B392" s="13"/>
+      <c r="B392" s="11"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B393" s="13">
+      <c r="B393" s="11">
         <v>2675.4</v>
       </c>
     </row>
@@ -14459,7 +14374,7 @@
       <c r="A394" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B394" s="13">
+      <c r="B394" s="11">
         <v>50</v>
       </c>
     </row>
@@ -14467,7 +14382,7 @@
       <c r="A395" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B395" s="13">
+      <c r="B395" s="11">
         <v>122.6</v>
       </c>
     </row>
@@ -14475,7 +14390,7 @@
       <c r="A396" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B396" s="13">
+      <c r="B396" s="11">
         <v>40.5</v>
       </c>
     </row>
@@ -14483,7 +14398,7 @@
       <c r="A397" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B397" s="13">
+      <c r="B397" s="11">
         <v>2287.5</v>
       </c>
     </row>
@@ -14491,2544 +14406,11 @@
       <c r="A398" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B398" s="13">
+      <c r="B398" s="11">
         <v>174.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AFFF01-C11B-48B9-91D9-47EFBA7E7E5E}">
-  <dimension ref="A1:S19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="11">
-        <v>4232.8999999999996</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43.8</v>
-      </c>
-      <c r="D2" s="11">
-        <v>132.5</v>
-      </c>
-      <c r="E2" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3802.4</v>
-      </c>
-      <c r="G2" s="12">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2117.3000000000002</v>
-      </c>
-      <c r="I2" s="12">
-        <v>21.3</v>
-      </c>
-      <c r="J2" s="11">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="K2" s="12">
-        <v>57.8</v>
-      </c>
-      <c r="L2" s="11">
-        <v>1887.4</v>
-      </c>
-      <c r="M2" s="12">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="N2" s="11">
-        <v>2115.6</v>
-      </c>
-      <c r="O2" s="12">
-        <v>22.5</v>
-      </c>
-      <c r="P2" s="11">
-        <v>52.6</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>57.7</v>
-      </c>
-      <c r="R2" s="11">
-        <v>1914.9</v>
-      </c>
-      <c r="S2" s="12">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="11">
-        <v>4375.8</v>
-      </c>
-      <c r="C3" s="12">
-        <v>47</v>
-      </c>
-      <c r="D3" s="11">
-        <v>207.6</v>
-      </c>
-      <c r="E3" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3856.2</v>
-      </c>
-      <c r="G3" s="12">
-        <v>149.6</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2191.3000000000002</v>
-      </c>
-      <c r="I3" s="12">
-        <v>21.8</v>
-      </c>
-      <c r="J3" s="11">
-        <v>120.3</v>
-      </c>
-      <c r="K3" s="12">
-        <v>57.6</v>
-      </c>
-      <c r="L3" s="11">
-        <v>1915.7</v>
-      </c>
-      <c r="M3" s="12">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="N3" s="11">
-        <v>2184.6</v>
-      </c>
-      <c r="O3" s="12">
-        <v>25.2</v>
-      </c>
-      <c r="P3" s="11">
-        <v>87.4</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>57.9</v>
-      </c>
-      <c r="R3" s="11">
-        <v>1940.5</v>
-      </c>
-      <c r="S3" s="12">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4485.1000000000004</v>
-      </c>
-      <c r="C4" s="12">
-        <v>50.8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>247.7</v>
-      </c>
-      <c r="E4" s="12">
-        <v>117.9</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3909.5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>159.19999999999999</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2238.6</v>
-      </c>
-      <c r="I4" s="12">
-        <v>23.7</v>
-      </c>
-      <c r="J4" s="11">
-        <v>133.9</v>
-      </c>
-      <c r="K4" s="12">
-        <v>58.9</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1942.3</v>
-      </c>
-      <c r="M4" s="12">
-        <v>79.8</v>
-      </c>
-      <c r="N4" s="11">
-        <v>2246.5</v>
-      </c>
-      <c r="O4" s="12">
-        <v>27.1</v>
-      </c>
-      <c r="P4" s="11">
-        <v>113.8</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>59</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1967.2</v>
-      </c>
-      <c r="S4" s="12">
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4533.3999999999996</v>
-      </c>
-      <c r="C5" s="12">
-        <v>55.3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>240.8</v>
-      </c>
-      <c r="E5" s="12">
-        <v>117.1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3958</v>
-      </c>
-      <c r="G5" s="12">
-        <v>162.19999999999999</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2257.3000000000002</v>
-      </c>
-      <c r="I5" s="12">
-        <v>25.5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>124.8</v>
-      </c>
-      <c r="K5" s="12">
-        <v>58.3</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1966.4</v>
-      </c>
-      <c r="M5" s="12">
-        <v>82.3</v>
-      </c>
-      <c r="N5" s="11">
-        <v>2276.1</v>
-      </c>
-      <c r="O5" s="12">
-        <v>29.7</v>
-      </c>
-      <c r="P5" s="11">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>58.8</v>
-      </c>
-      <c r="R5" s="11">
-        <v>1991.6</v>
-      </c>
-      <c r="S5" s="12">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4554.8</v>
-      </c>
-      <c r="C6" s="12">
-        <v>52.4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>233</v>
-      </c>
-      <c r="E6" s="12">
-        <v>115.9</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3994.7</v>
-      </c>
-      <c r="G6" s="12">
-        <v>158.69999999999999</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2262.1999999999998</v>
-      </c>
-      <c r="I6" s="12">
-        <v>24</v>
-      </c>
-      <c r="J6" s="11">
-        <v>117.6</v>
-      </c>
-      <c r="K6" s="12">
-        <v>57.7</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1983.3</v>
-      </c>
-      <c r="M6" s="12">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="N6" s="11">
-        <v>2292.6</v>
-      </c>
-      <c r="O6" s="12">
-        <v>28.4</v>
-      </c>
-      <c r="P6" s="11">
-        <v>115.5</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>58.2</v>
-      </c>
-      <c r="R6" s="11">
-        <v>2011.4</v>
-      </c>
-      <c r="S6" s="12">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4574.8999999999996</v>
-      </c>
-      <c r="C7" s="12">
-        <v>49.4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>231.5</v>
-      </c>
-      <c r="E7" s="12">
-        <v>114.9</v>
-      </c>
-      <c r="F7" s="11">
-        <v>4017.9</v>
-      </c>
-      <c r="G7" s="12">
-        <v>161.19999999999999</v>
-      </c>
-      <c r="H7" s="11">
-        <v>2270.5</v>
-      </c>
-      <c r="I7" s="12">
-        <v>23.9</v>
-      </c>
-      <c r="J7" s="11">
-        <v>116.5</v>
-      </c>
-      <c r="K7" s="12">
-        <v>57.8</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1991.9</v>
-      </c>
-      <c r="M7" s="12">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2304.4</v>
-      </c>
-      <c r="O7" s="12">
-        <v>25.5</v>
-      </c>
-      <c r="P7" s="11">
-        <v>114.9</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>57.1</v>
-      </c>
-      <c r="R7" s="11">
-        <v>2026</v>
-      </c>
-      <c r="S7" s="12">
-        <v>80.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4593.7</v>
-      </c>
-      <c r="C8" s="12">
-        <v>51</v>
-      </c>
-      <c r="D8" s="11">
-        <v>232.7</v>
-      </c>
-      <c r="E8" s="12">
-        <v>111.8</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4046.6</v>
-      </c>
-      <c r="G8" s="12">
-        <v>151.6</v>
-      </c>
-      <c r="H8" s="11">
-        <v>2275</v>
-      </c>
-      <c r="I8" s="12">
-        <v>24.3</v>
-      </c>
-      <c r="J8" s="11">
-        <v>116.8</v>
-      </c>
-      <c r="K8" s="12">
-        <v>56.1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>2003.2</v>
-      </c>
-      <c r="M8" s="12">
-        <v>74.7</v>
-      </c>
-      <c r="N8" s="11">
-        <v>2318.6999999999998</v>
-      </c>
-      <c r="O8" s="12">
-        <v>26.7</v>
-      </c>
-      <c r="P8" s="11">
-        <v>115.9</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>55.7</v>
-      </c>
-      <c r="R8" s="11">
-        <v>2043.4</v>
-      </c>
-      <c r="S8" s="12">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4614.7</v>
-      </c>
-      <c r="C9" s="12">
-        <v>53.2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>234.5</v>
-      </c>
-      <c r="E9" s="12">
-        <v>109.2</v>
-      </c>
-      <c r="F9" s="11">
-        <v>4080.7</v>
-      </c>
-      <c r="G9" s="12">
-        <v>137.1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>2286.1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>25.8</v>
-      </c>
-      <c r="J9" s="11">
-        <v>117.5</v>
-      </c>
-      <c r="K9" s="12">
-        <v>55</v>
-      </c>
-      <c r="L9" s="11">
-        <v>2019.4</v>
-      </c>
-      <c r="M9" s="12">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="N9" s="11">
-        <v>2328.5</v>
-      </c>
-      <c r="O9" s="12">
-        <v>27.4</v>
-      </c>
-      <c r="P9" s="11">
-        <v>117</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>54.1</v>
-      </c>
-      <c r="R9" s="11">
-        <v>2061.3000000000002</v>
-      </c>
-      <c r="S9" s="12">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="11">
-        <v>4645.3999999999996</v>
-      </c>
-      <c r="C10" s="12">
-        <v>56.9</v>
-      </c>
-      <c r="D10" s="11">
-        <v>242.8</v>
-      </c>
-      <c r="E10" s="12">
-        <v>107.1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>4117.6000000000004</v>
-      </c>
-      <c r="G10" s="12">
-        <v>121</v>
-      </c>
-      <c r="H10" s="11">
-        <v>2299</v>
-      </c>
-      <c r="I10" s="12">
-        <v>27.6</v>
-      </c>
-      <c r="J10" s="11">
-        <v>121.5</v>
-      </c>
-      <c r="K10" s="12">
-        <v>54.1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>2036</v>
-      </c>
-      <c r="M10" s="12">
-        <v>59.8</v>
-      </c>
-      <c r="N10" s="11">
-        <v>2346.4</v>
-      </c>
-      <c r="O10" s="12">
-        <v>29.3</v>
-      </c>
-      <c r="P10" s="11">
-        <v>121.3</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>53</v>
-      </c>
-      <c r="R10" s="11">
-        <v>2081.6</v>
-      </c>
-      <c r="S10" s="12">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="11">
-        <v>4687.8</v>
-      </c>
-      <c r="C11" s="12">
-        <v>60.3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>247.8</v>
-      </c>
-      <c r="E11" s="12">
-        <v>105.7</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4152.8999999999996</v>
-      </c>
-      <c r="G11" s="12">
-        <v>121.1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>2317.6999999999998</v>
-      </c>
-      <c r="I11" s="12">
-        <v>28.4</v>
-      </c>
-      <c r="J11" s="11">
-        <v>123.5</v>
-      </c>
-      <c r="K11" s="12">
-        <v>53.6</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2052.1</v>
-      </c>
-      <c r="M11" s="12">
-        <v>60.1</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2370.1</v>
-      </c>
-      <c r="O11" s="12">
-        <v>31.9</v>
-      </c>
-      <c r="P11" s="11">
-        <v>124.2</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>52.2</v>
-      </c>
-      <c r="R11" s="11">
-        <v>2100.8000000000002</v>
-      </c>
-      <c r="S11" s="12">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="11">
-        <v>4739.6000000000004</v>
-      </c>
-      <c r="C12" s="12">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="D12" s="11">
-        <v>249.4</v>
-      </c>
-      <c r="E12" s="12">
-        <v>105.7</v>
-      </c>
-      <c r="F12" s="11">
-        <v>4189.1000000000004</v>
-      </c>
-      <c r="G12" s="12">
-        <v>130.4</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2346.5</v>
-      </c>
-      <c r="I12" s="12">
-        <v>31.3</v>
-      </c>
-      <c r="J12" s="11">
-        <v>123.5</v>
-      </c>
-      <c r="K12" s="12">
-        <v>54.2</v>
-      </c>
-      <c r="L12" s="11">
-        <v>2071.4</v>
-      </c>
-      <c r="M12" s="12">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="N12" s="11">
-        <v>2393.1</v>
-      </c>
-      <c r="O12" s="12">
-        <v>33.5</v>
-      </c>
-      <c r="P12" s="11">
-        <v>125.9</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>51.6</v>
-      </c>
-      <c r="R12" s="11">
-        <v>2117.6999999999998</v>
-      </c>
-      <c r="S12" s="12">
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="11">
-        <v>4810.8999999999996</v>
-      </c>
-      <c r="C13" s="12">
-        <v>69.5</v>
-      </c>
-      <c r="D13" s="11">
-        <v>246.9</v>
-      </c>
-      <c r="E13" s="12">
-        <v>103.3</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4245.3</v>
-      </c>
-      <c r="G13" s="12">
-        <v>145.9</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2380.8000000000002</v>
-      </c>
-      <c r="I13" s="12">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="J13" s="11">
-        <v>122.1</v>
-      </c>
-      <c r="K13" s="12">
-        <v>53.1</v>
-      </c>
-      <c r="L13" s="11">
-        <v>2099.1999999999998</v>
-      </c>
-      <c r="M13" s="12">
-        <v>73.2</v>
-      </c>
-      <c r="N13" s="11">
-        <v>2430.1</v>
-      </c>
-      <c r="O13" s="12">
-        <v>36.4</v>
-      </c>
-      <c r="P13" s="11">
-        <v>124.7</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>50.3</v>
-      </c>
-      <c r="R13" s="11">
-        <v>2146</v>
-      </c>
-      <c r="S13" s="12">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="11">
-        <v>4884.8999999999996</v>
-      </c>
-      <c r="C14" s="12">
-        <v>74.3</v>
-      </c>
-      <c r="D14" s="11">
-        <v>247.9</v>
-      </c>
-      <c r="E14" s="12">
-        <v>103</v>
-      </c>
-      <c r="F14" s="11">
-        <v>4292.3</v>
-      </c>
-      <c r="G14" s="12">
-        <v>167.5</v>
-      </c>
-      <c r="H14" s="11">
-        <v>2419.5</v>
-      </c>
-      <c r="I14" s="12">
-        <v>35.5</v>
-      </c>
-      <c r="J14" s="11">
-        <v>122.5</v>
-      </c>
-      <c r="K14" s="12">
-        <v>53.3</v>
-      </c>
-      <c r="L14" s="11">
-        <v>2123.5</v>
-      </c>
-      <c r="M14" s="12">
-        <v>84.8</v>
-      </c>
-      <c r="N14" s="11">
-        <v>2465.4</v>
-      </c>
-      <c r="O14" s="12">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="P14" s="11">
-        <v>125.4</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>49.7</v>
-      </c>
-      <c r="R14" s="11">
-        <v>2168.8000000000002</v>
-      </c>
-      <c r="S14" s="12">
-        <v>82.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="11">
-        <v>4958.5</v>
-      </c>
-      <c r="C15" s="12">
-        <v>82.3</v>
-      </c>
-      <c r="D15" s="11">
-        <v>245.2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>102.7</v>
-      </c>
-      <c r="F15" s="11">
-        <v>4336.5</v>
-      </c>
-      <c r="G15" s="12">
-        <v>191.7</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2456.3000000000002</v>
-      </c>
-      <c r="I15" s="12">
-        <v>39.4</v>
-      </c>
-      <c r="J15" s="11">
-        <v>121</v>
-      </c>
-      <c r="K15" s="12">
-        <v>53.5</v>
-      </c>
-      <c r="L15" s="11">
-        <v>2145.1999999999998</v>
-      </c>
-      <c r="M15" s="12">
-        <v>97.3</v>
-      </c>
-      <c r="N15" s="11">
-        <v>2502.1999999999998</v>
-      </c>
-      <c r="O15" s="12">
-        <v>42.9</v>
-      </c>
-      <c r="P15" s="11">
-        <v>124.2</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>49.2</v>
-      </c>
-      <c r="R15" s="11">
-        <v>2191.3000000000002</v>
-      </c>
-      <c r="S15" s="12">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="11">
-        <v>5029.8999999999996</v>
-      </c>
-      <c r="C16" s="12">
-        <v>86.5</v>
-      </c>
-      <c r="D16" s="11">
-        <v>244.9</v>
-      </c>
-      <c r="E16" s="12">
-        <v>100</v>
-      </c>
-      <c r="F16" s="11">
-        <v>4384.8</v>
-      </c>
-      <c r="G16" s="12">
-        <v>213.6</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2491.8000000000002</v>
-      </c>
-      <c r="I16" s="12">
-        <v>41.5</v>
-      </c>
-      <c r="J16" s="11">
-        <v>121.8</v>
-      </c>
-      <c r="K16" s="12">
-        <v>51.8</v>
-      </c>
-      <c r="L16" s="11">
-        <v>2169.1999999999998</v>
-      </c>
-      <c r="M16" s="12">
-        <v>107.4</v>
-      </c>
-      <c r="N16" s="11">
-        <v>2538.1</v>
-      </c>
-      <c r="O16" s="12">
-        <v>45</v>
-      </c>
-      <c r="P16" s="11">
-        <v>123.1</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>48.2</v>
-      </c>
-      <c r="R16" s="11">
-        <v>2215.6</v>
-      </c>
-      <c r="S16" s="12">
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="11">
-        <v>5074.7</v>
-      </c>
-      <c r="C17" s="12">
-        <v>86.7</v>
-      </c>
-      <c r="D17" s="11">
-        <v>240</v>
-      </c>
-      <c r="E17" s="12">
-        <v>97.7</v>
-      </c>
-      <c r="F17" s="11">
-        <v>4430.8</v>
-      </c>
-      <c r="G17" s="12">
-        <v>219.4</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2514</v>
-      </c>
-      <c r="I17" s="12">
-        <v>42.1</v>
-      </c>
-      <c r="J17" s="11">
-        <v>118.6</v>
-      </c>
-      <c r="K17" s="12">
-        <v>53.6</v>
-      </c>
-      <c r="L17" s="11">
-        <v>2194.5</v>
-      </c>
-      <c r="M17" s="12">
-        <v>105.2</v>
-      </c>
-      <c r="N17" s="11">
-        <v>2560.6</v>
-      </c>
-      <c r="O17" s="12">
-        <v>44.6</v>
-      </c>
-      <c r="P17" s="11">
-        <v>121.4</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>44.1</v>
-      </c>
-      <c r="R17" s="11">
-        <v>2236.3000000000002</v>
-      </c>
-      <c r="S17" s="12">
-        <v>114.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5184</v>
-      </c>
-      <c r="C18" s="12">
-        <v>90.6</v>
-      </c>
-      <c r="D18" s="11">
-        <v>240.5</v>
-      </c>
-      <c r="E18" s="12">
-        <v>89.3</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4495.3999999999996</v>
-      </c>
-      <c r="G18" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="H18" s="11">
-        <v>2562</v>
-      </c>
-      <c r="I18" s="12">
-        <v>43.9</v>
-      </c>
-      <c r="J18" s="11">
-        <v>119.9</v>
-      </c>
-      <c r="K18" s="12">
-        <v>48.1</v>
-      </c>
-      <c r="L18" s="11">
-        <v>2222</v>
-      </c>
-      <c r="M18" s="12">
-        <v>128</v>
-      </c>
-      <c r="N18" s="11">
-        <v>2622</v>
-      </c>
-      <c r="O18" s="12">
-        <v>46.6</v>
-      </c>
-      <c r="P18" s="11">
-        <v>120.6</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>41.2</v>
-      </c>
-      <c r="R18" s="11">
-        <v>2273.5</v>
-      </c>
-      <c r="S18" s="12">
-        <v>140.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="11">
-        <v>5281.6</v>
-      </c>
-      <c r="C19" s="12">
-        <v>98.7</v>
-      </c>
-      <c r="D19" s="11">
-        <v>243.2</v>
-      </c>
-      <c r="E19" s="12">
-        <v>88.1</v>
-      </c>
-      <c r="F19" s="11">
-        <v>4524.6000000000004</v>
-      </c>
-      <c r="G19" s="12">
-        <v>327</v>
-      </c>
-      <c r="H19" s="11">
-        <v>2606.1999999999998</v>
-      </c>
-      <c r="I19" s="12">
-        <v>48.7</v>
-      </c>
-      <c r="J19" s="11">
-        <v>120.6</v>
-      </c>
-      <c r="K19" s="12">
-        <v>47.5</v>
-      </c>
-      <c r="L19" s="11">
-        <v>2237.1</v>
-      </c>
-      <c r="M19" s="12">
-        <v>152.30000000000001</v>
-      </c>
-      <c r="N19" s="11">
-        <v>2675.4</v>
-      </c>
-      <c r="O19" s="12">
-        <v>50</v>
-      </c>
-      <c r="P19" s="11">
-        <v>122.6</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>40.5</v>
-      </c>
-      <c r="R19" s="11">
-        <v>2287.5</v>
-      </c>
-      <c r="S19" s="12">
-        <v>174.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57A5CA-060F-4839-8BA6-BE2CA411E92C}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2117.3000000000002</v>
-      </c>
-      <c r="C2" s="12">
-        <v>21.3</v>
-      </c>
-      <c r="D2" s="11">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="E2" s="12">
-        <v>57.8</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1887.4</v>
-      </c>
-      <c r="G2" s="12">
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2191.3000000000002</v>
-      </c>
-      <c r="C3" s="12">
-        <v>21.8</v>
-      </c>
-      <c r="D3" s="11">
-        <v>120.3</v>
-      </c>
-      <c r="E3" s="12">
-        <v>57.6</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1915.7</v>
-      </c>
-      <c r="G3" s="12">
-        <v>75.900000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2238.6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>23.7</v>
-      </c>
-      <c r="D4" s="11">
-        <v>133.9</v>
-      </c>
-      <c r="E4" s="12">
-        <v>58.9</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1942.3</v>
-      </c>
-      <c r="G4" s="12">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2257.3000000000002</v>
-      </c>
-      <c r="C5" s="12">
-        <v>25.5</v>
-      </c>
-      <c r="D5" s="11">
-        <v>124.8</v>
-      </c>
-      <c r="E5" s="12">
-        <v>58.3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1966.4</v>
-      </c>
-      <c r="G5" s="12">
-        <v>82.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2262.1999999999998</v>
-      </c>
-      <c r="C6" s="12">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11">
-        <v>117.6</v>
-      </c>
-      <c r="E6" s="12">
-        <v>57.7</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1983.3</v>
-      </c>
-      <c r="G6" s="12">
-        <v>79.599999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2270.5</v>
-      </c>
-      <c r="C7" s="12">
-        <v>23.9</v>
-      </c>
-      <c r="D7" s="11">
-        <v>116.5</v>
-      </c>
-      <c r="E7" s="12">
-        <v>57.8</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1991.9</v>
-      </c>
-      <c r="G7" s="12">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2275</v>
-      </c>
-      <c r="C8" s="12">
-        <v>24.3</v>
-      </c>
-      <c r="D8" s="11">
-        <v>116.8</v>
-      </c>
-      <c r="E8" s="12">
-        <v>56.1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2003.2</v>
-      </c>
-      <c r="G8" s="12">
-        <v>74.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2286.1</v>
-      </c>
-      <c r="C9" s="12">
-        <v>25.8</v>
-      </c>
-      <c r="D9" s="11">
-        <v>117.5</v>
-      </c>
-      <c r="E9" s="12">
-        <v>55</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2019.4</v>
-      </c>
-      <c r="G9" s="12">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2299</v>
-      </c>
-      <c r="C10" s="12">
-        <v>27.6</v>
-      </c>
-      <c r="D10" s="11">
-        <v>121.5</v>
-      </c>
-      <c r="E10" s="12">
-        <v>54.1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2036</v>
-      </c>
-      <c r="G10" s="12">
-        <v>59.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2317.6999999999998</v>
-      </c>
-      <c r="C11" s="12">
-        <v>28.4</v>
-      </c>
-      <c r="D11" s="11">
-        <v>123.5</v>
-      </c>
-      <c r="E11" s="12">
-        <v>53.6</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2052.1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2346.5</v>
-      </c>
-      <c r="C12" s="12">
-        <v>31.3</v>
-      </c>
-      <c r="D12" s="11">
-        <v>123.5</v>
-      </c>
-      <c r="E12" s="12">
-        <v>54.2</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2071.4</v>
-      </c>
-      <c r="G12" s="12">
-        <v>66.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2380.8000000000002</v>
-      </c>
-      <c r="C13" s="12">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="D13" s="11">
-        <v>122.1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>53.1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2099.1999999999998</v>
-      </c>
-      <c r="G13" s="12">
-        <v>73.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2419.5</v>
-      </c>
-      <c r="C14" s="12">
-        <v>35.5</v>
-      </c>
-      <c r="D14" s="11">
-        <v>122.5</v>
-      </c>
-      <c r="E14" s="12">
-        <v>53.3</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2123.5</v>
-      </c>
-      <c r="G14" s="12">
-        <v>84.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2456.3000000000002</v>
-      </c>
-      <c r="C15" s="12">
-        <v>39.4</v>
-      </c>
-      <c r="D15" s="11">
-        <v>121</v>
-      </c>
-      <c r="E15" s="12">
-        <v>53.5</v>
-      </c>
-      <c r="F15" s="11">
-        <v>2145.1999999999998</v>
-      </c>
-      <c r="G15" s="12">
-        <v>97.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2491.8000000000002</v>
-      </c>
-      <c r="C16" s="12">
-        <v>41.5</v>
-      </c>
-      <c r="D16" s="11">
-        <v>121.8</v>
-      </c>
-      <c r="E16" s="12">
-        <v>51.8</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2169.1999999999998</v>
-      </c>
-      <c r="G16" s="12">
-        <v>107.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="11">
-        <v>2514</v>
-      </c>
-      <c r="C17" s="12">
-        <v>42.1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>118.6</v>
-      </c>
-      <c r="E17" s="12">
-        <v>53.6</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2194.5</v>
-      </c>
-      <c r="G17" s="12">
-        <v>105.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2562</v>
-      </c>
-      <c r="C18" s="12">
-        <v>43.9</v>
-      </c>
-      <c r="D18" s="11">
-        <v>119.9</v>
-      </c>
-      <c r="E18" s="12">
-        <v>48.1</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2222</v>
-      </c>
-      <c r="G18" s="12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2606.1999999999998</v>
-      </c>
-      <c r="C19" s="12">
-        <v>48.7</v>
-      </c>
-      <c r="D19" s="11">
-        <v>120.6</v>
-      </c>
-      <c r="E19" s="12">
-        <v>47.5</v>
-      </c>
-      <c r="F19" s="11">
-        <v>2237.1</v>
-      </c>
-      <c r="G19" s="12">
-        <v>152.30000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72B792E-A84B-4A8F-8344-EFF35CC76B38}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="11">
-        <v>4232.8999999999996</v>
-      </c>
-      <c r="C2" s="12">
-        <v>43.8</v>
-      </c>
-      <c r="D2" s="11">
-        <v>132.5</v>
-      </c>
-      <c r="E2" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3802.4</v>
-      </c>
-      <c r="G2" s="12">
-        <v>138.80000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="11">
-        <v>4375.8</v>
-      </c>
-      <c r="C3" s="12">
-        <v>47</v>
-      </c>
-      <c r="D3" s="11">
-        <v>207.6</v>
-      </c>
-      <c r="E3" s="12">
-        <v>115.5</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3856.2</v>
-      </c>
-      <c r="G3" s="12">
-        <v>149.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4485.1000000000004</v>
-      </c>
-      <c r="C4" s="12">
-        <v>50.8</v>
-      </c>
-      <c r="D4" s="11">
-        <v>247.7</v>
-      </c>
-      <c r="E4" s="12">
-        <v>117.9</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3909.5</v>
-      </c>
-      <c r="G4" s="12">
-        <v>159.19999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4533.3999999999996</v>
-      </c>
-      <c r="C5" s="12">
-        <v>55.3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>240.8</v>
-      </c>
-      <c r="E5" s="12">
-        <v>117.1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3958</v>
-      </c>
-      <c r="G5" s="12">
-        <v>162.19999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4554.8</v>
-      </c>
-      <c r="C6" s="12">
-        <v>52.4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>233</v>
-      </c>
-      <c r="E6" s="12">
-        <v>115.9</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3994.7</v>
-      </c>
-      <c r="G6" s="12">
-        <v>158.69999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4574.8999999999996</v>
-      </c>
-      <c r="C7" s="12">
-        <v>49.4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>231.5</v>
-      </c>
-      <c r="E7" s="12">
-        <v>114.9</v>
-      </c>
-      <c r="F7" s="11">
-        <v>4017.9</v>
-      </c>
-      <c r="G7" s="12">
-        <v>161.19999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4593.7</v>
-      </c>
-      <c r="C8" s="12">
-        <v>51</v>
-      </c>
-      <c r="D8" s="11">
-        <v>232.7</v>
-      </c>
-      <c r="E8" s="12">
-        <v>111.8</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4046.6</v>
-      </c>
-      <c r="G8" s="12">
-        <v>151.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4614.7</v>
-      </c>
-      <c r="C9" s="12">
-        <v>53.2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>234.5</v>
-      </c>
-      <c r="E9" s="12">
-        <v>109.2</v>
-      </c>
-      <c r="F9" s="11">
-        <v>4080.7</v>
-      </c>
-      <c r="G9" s="12">
-        <v>137.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="11">
-        <v>4645.3999999999996</v>
-      </c>
-      <c r="C10" s="12">
-        <v>56.9</v>
-      </c>
-      <c r="D10" s="11">
-        <v>242.8</v>
-      </c>
-      <c r="E10" s="12">
-        <v>107.1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>4117.6000000000004</v>
-      </c>
-      <c r="G10" s="12">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="11">
-        <v>4687.8</v>
-      </c>
-      <c r="C11" s="12">
-        <v>60.3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>247.8</v>
-      </c>
-      <c r="E11" s="12">
-        <v>105.7</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4152.8999999999996</v>
-      </c>
-      <c r="G11" s="12">
-        <v>121.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="11">
-        <v>4739.6000000000004</v>
-      </c>
-      <c r="C12" s="12">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="D12" s="11">
-        <v>249.4</v>
-      </c>
-      <c r="E12" s="12">
-        <v>105.7</v>
-      </c>
-      <c r="F12" s="11">
-        <v>4189.1000000000004</v>
-      </c>
-      <c r="G12" s="12">
-        <v>130.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="11">
-        <v>4810.8999999999996</v>
-      </c>
-      <c r="C13" s="12">
-        <v>69.5</v>
-      </c>
-      <c r="D13" s="11">
-        <v>246.9</v>
-      </c>
-      <c r="E13" s="12">
-        <v>103.3</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4245.3</v>
-      </c>
-      <c r="G13" s="12">
-        <v>145.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="11">
-        <v>4884.8999999999996</v>
-      </c>
-      <c r="C14" s="12">
-        <v>74.3</v>
-      </c>
-      <c r="D14" s="11">
-        <v>247.9</v>
-      </c>
-      <c r="E14" s="12">
-        <v>103</v>
-      </c>
-      <c r="F14" s="11">
-        <v>4292.3</v>
-      </c>
-      <c r="G14" s="12">
-        <v>167.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="11">
-        <v>4958.5</v>
-      </c>
-      <c r="C15" s="12">
-        <v>82.3</v>
-      </c>
-      <c r="D15" s="11">
-        <v>245.2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>102.7</v>
-      </c>
-      <c r="F15" s="11">
-        <v>4336.5</v>
-      </c>
-      <c r="G15" s="12">
-        <v>191.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="11">
-        <v>5029.8999999999996</v>
-      </c>
-      <c r="C16" s="12">
-        <v>86.5</v>
-      </c>
-      <c r="D16" s="11">
-        <v>244.9</v>
-      </c>
-      <c r="E16" s="12">
-        <v>100</v>
-      </c>
-      <c r="F16" s="11">
-        <v>4384.8</v>
-      </c>
-      <c r="G16" s="12">
-        <v>213.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="11">
-        <v>5074.7</v>
-      </c>
-      <c r="C17" s="12">
-        <v>86.7</v>
-      </c>
-      <c r="D17" s="11">
-        <v>240</v>
-      </c>
-      <c r="E17" s="12">
-        <v>97.7</v>
-      </c>
-      <c r="F17" s="11">
-        <v>4430.8</v>
-      </c>
-      <c r="G17" s="12">
-        <v>219.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5184</v>
-      </c>
-      <c r="C18" s="12">
-        <v>90.6</v>
-      </c>
-      <c r="D18" s="11">
-        <v>240.5</v>
-      </c>
-      <c r="E18" s="12">
-        <v>89.3</v>
-      </c>
-      <c r="F18" s="11">
-        <v>4495.3999999999996</v>
-      </c>
-      <c r="G18" s="12">
-        <v>268.10000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="11">
-        <v>5281.6</v>
-      </c>
-      <c r="C19" s="12">
-        <v>98.7</v>
-      </c>
-      <c r="D19" s="11">
-        <v>243.2</v>
-      </c>
-      <c r="E19" s="12">
-        <v>88.1</v>
-      </c>
-      <c r="F19" s="11">
-        <v>4524.6000000000004</v>
-      </c>
-      <c r="G19" s="12">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D417A0CB-E9D8-41D8-80E4-9F483DA89647}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2115.6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>22.5</v>
-      </c>
-      <c r="D2" s="11">
-        <v>52.6</v>
-      </c>
-      <c r="E2" s="12">
-        <v>57.7</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1914.9</v>
-      </c>
-      <c r="G2" s="12">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2184.6</v>
-      </c>
-      <c r="C3" s="12">
-        <v>25.2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>87.4</v>
-      </c>
-      <c r="E3" s="12">
-        <v>57.9</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1940.5</v>
-      </c>
-      <c r="G3" s="12">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2246.5</v>
-      </c>
-      <c r="C4" s="12">
-        <v>27.1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>113.8</v>
-      </c>
-      <c r="E4" s="12">
-        <v>59</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1967.2</v>
-      </c>
-      <c r="G4" s="12">
-        <v>79.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2276.1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>29.7</v>
-      </c>
-      <c r="D5" s="11">
-        <v>116</v>
-      </c>
-      <c r="E5" s="12">
-        <v>58.8</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1991.6</v>
-      </c>
-      <c r="G5" s="12">
-        <v>79.900000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2292.6</v>
-      </c>
-      <c r="C6" s="12">
-        <v>28.4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>115.5</v>
-      </c>
-      <c r="E6" s="12">
-        <v>58.2</v>
-      </c>
-      <c r="F6" s="11">
-        <v>2011.4</v>
-      </c>
-      <c r="G6" s="12">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2304.4</v>
-      </c>
-      <c r="C7" s="12">
-        <v>25.5</v>
-      </c>
-      <c r="D7" s="11">
-        <v>114.9</v>
-      </c>
-      <c r="E7" s="12">
-        <v>57.1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>2026</v>
-      </c>
-      <c r="G7" s="12">
-        <v>80.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2318.6999999999998</v>
-      </c>
-      <c r="C8" s="12">
-        <v>26.7</v>
-      </c>
-      <c r="D8" s="11">
-        <v>115.9</v>
-      </c>
-      <c r="E8" s="12">
-        <v>55.7</v>
-      </c>
-      <c r="F8" s="11">
-        <v>2043.4</v>
-      </c>
-      <c r="G8" s="12">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2328.5</v>
-      </c>
-      <c r="C9" s="12">
-        <v>27.4</v>
-      </c>
-      <c r="D9" s="11">
-        <v>117</v>
-      </c>
-      <c r="E9" s="12">
-        <v>54.1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2061.3000000000002</v>
-      </c>
-      <c r="G9" s="12">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2346.4</v>
-      </c>
-      <c r="C10" s="12">
-        <v>29.3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>121.3</v>
-      </c>
-      <c r="E10" s="12">
-        <v>53</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2081.6</v>
-      </c>
-      <c r="G10" s="12">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2370.1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>31.9</v>
-      </c>
-      <c r="D11" s="11">
-        <v>124.2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>52.2</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2100.8000000000002</v>
-      </c>
-      <c r="G11" s="12">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2393.1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>33.5</v>
-      </c>
-      <c r="D12" s="11">
-        <v>125.9</v>
-      </c>
-      <c r="E12" s="12">
-        <v>51.6</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2117.6999999999998</v>
-      </c>
-      <c r="G12" s="12">
-        <v>64.400000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2430.1</v>
-      </c>
-      <c r="C13" s="12">
-        <v>36.4</v>
-      </c>
-      <c r="D13" s="11">
-        <v>124.7</v>
-      </c>
-      <c r="E13" s="12">
-        <v>50.3</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2146</v>
-      </c>
-      <c r="G13" s="12">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2465.4</v>
-      </c>
-      <c r="C14" s="12">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D14" s="11">
-        <v>125.4</v>
-      </c>
-      <c r="E14" s="12">
-        <v>49.7</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2168.8000000000002</v>
-      </c>
-      <c r="G14" s="12">
-        <v>82.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2502.1999999999998</v>
-      </c>
-      <c r="C15" s="12">
-        <v>42.9</v>
-      </c>
-      <c r="D15" s="11">
-        <v>124.2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>49.2</v>
-      </c>
-      <c r="F15" s="11">
-        <v>2191.3000000000002</v>
-      </c>
-      <c r="G15" s="12">
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2538.1</v>
-      </c>
-      <c r="C16" s="12">
-        <v>45</v>
-      </c>
-      <c r="D16" s="11">
-        <v>123.1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>48.2</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2215.6</v>
-      </c>
-      <c r="G16" s="12">
-        <v>106.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="11">
-        <v>2560.6</v>
-      </c>
-      <c r="C17" s="12">
-        <v>44.6</v>
-      </c>
-      <c r="D17" s="11">
-        <v>121.4</v>
-      </c>
-      <c r="E17" s="12">
-        <v>44.1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>2236.3000000000002</v>
-      </c>
-      <c r="G17" s="12">
-        <v>114.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2622</v>
-      </c>
-      <c r="C18" s="12">
-        <v>46.6</v>
-      </c>
-      <c r="D18" s="11">
-        <v>120.6</v>
-      </c>
-      <c r="E18" s="12">
-        <v>41.2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2273.5</v>
-      </c>
-      <c r="G18" s="12">
-        <v>140.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2675.4</v>
-      </c>
-      <c r="C19" s="12">
-        <v>50</v>
-      </c>
-      <c r="D19" s="11">
-        <v>122.6</v>
-      </c>
-      <c r="E19" s="12">
-        <v>40.5</v>
-      </c>
-      <c r="F19" s="11">
-        <v>2287.5</v>
-      </c>
-      <c r="G19" s="12">
-        <v>174.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PEA25_estimated_population.xlsx
+++ b/PEA25_estimated_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stphn\Documents\CCT\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF87B247-B5BE-458A-8C83-5DD5FE7D344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2787D9-0E47-482E-A42A-FF04FA1D9436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Stephen Kelly" refreshedDate="45246.959425347224" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Stephen Kelly" refreshedDate="45247.484961689814" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F325" sheet="Unpivoted"/>
   </cacheSource>
@@ -4837,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
